--- a/maps/IL/IL20C_energies.xlsx
+++ b/maps/IL/IL20C_energies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10419"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/IL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F5C09E-A1B4-A045-B1E2-214B52DAB374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDE62F5-1CDE-244D-AD04-8D7C373FB124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{18DD8B35-12EA-6E45-A6ED-C2ED6BC0CAB6}"/>
   </bookViews>
@@ -16,11 +16,8 @@
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="IL20C_energies" localSheetId="1">DATA!$A$1:$I$101</definedName>
+    <definedName name="IL20C_energies" localSheetId="1">DATA!$A$1:$I$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="125">
   <si>
     <t>#</t>
   </si>
@@ -95,9 +92,6 @@
     <t>IL20C_I088K01N17</t>
   </si>
   <si>
-    <t>Lowest: 1-100, 1-1000</t>
-  </si>
-  <si>
     <t>IL20C_I050K01N17</t>
   </si>
   <si>
@@ -308,9 +302,6 @@
     <t>IL20C_I064K01N17</t>
   </si>
   <si>
-    <t>IL20C_I051K01N17</t>
-  </si>
-  <si>
     <t>IL20C_I081K01N17</t>
   </si>
   <si>
@@ -441,6 +432,9 @@
   </si>
   <si>
     <t>- # not contiguous</t>
+  </si>
+  <si>
+    <t>Lowest: 1-100</t>
   </si>
 </sst>
 </file>
@@ -528,7 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -555,6 +549,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,1122 +569,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="SUMMARY"/>
-      <sheetName val="DATA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="F2">
-            <v>1</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>0.99760800000000005</v>
-          </cell>
-          <cell r="G3">
-            <v>2.2690999999999999E-2</v>
-          </cell>
-          <cell r="H3">
-            <v>4.8079999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>0.98834699999999998</v>
-          </cell>
-          <cell r="G4">
-            <v>8.8508000000000003E-2</v>
-          </cell>
-          <cell r="H4">
-            <v>2.3800999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>0.99166699999999997</v>
-          </cell>
-          <cell r="G5">
-            <v>6.7396999999999999E-2</v>
-          </cell>
-          <cell r="H5">
-            <v>1.6947E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>0.98354799999999998</v>
-          </cell>
-          <cell r="G6">
-            <v>0.122129</v>
-          </cell>
-          <cell r="H6">
-            <v>3.3874000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>0.98370899999999994</v>
-          </cell>
-          <cell r="G7">
-            <v>0.117338</v>
-          </cell>
-          <cell r="H7">
-            <v>3.354E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>0.99012999999999995</v>
-          </cell>
-          <cell r="G8">
-            <v>8.0910999999999997E-2</v>
-          </cell>
-          <cell r="H8">
-            <v>2.0087000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>0.98768100000000003</v>
-          </cell>
-          <cell r="G9">
-            <v>9.8308999999999994E-2</v>
-          </cell>
-          <cell r="H9">
-            <v>2.5144E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>0.98917900000000003</v>
-          </cell>
-          <cell r="G10">
-            <v>8.2448999999999995E-2</v>
-          </cell>
-          <cell r="H10">
-            <v>2.2086000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>0.98163100000000003</v>
-          </cell>
-          <cell r="G11">
-            <v>0.13008600000000001</v>
-          </cell>
-          <cell r="H11">
-            <v>3.7977999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>0.98327100000000001</v>
-          </cell>
-          <cell r="G12">
-            <v>0.125362</v>
-          </cell>
-          <cell r="H12">
-            <v>3.4558999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>0.96345499999999995</v>
-          </cell>
-          <cell r="G13">
-            <v>0.21740499999999999</v>
-          </cell>
-          <cell r="H13">
-            <v>7.7640000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>0.98048900000000005</v>
-          </cell>
-          <cell r="G14">
-            <v>0.13681299999999999</v>
-          </cell>
-          <cell r="H14">
-            <v>4.0611000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>0.94762900000000005</v>
-          </cell>
-          <cell r="G15">
-            <v>0.29304599999999997</v>
-          </cell>
-          <cell r="H15">
-            <v>0.114261</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>0.98638499999999996</v>
-          </cell>
-          <cell r="G16">
-            <v>0.103731</v>
-          </cell>
-          <cell r="H16">
-            <v>2.7976999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>0.97520600000000002</v>
-          </cell>
-          <cell r="G17">
-            <v>0.15986</v>
-          </cell>
-          <cell r="H17">
-            <v>5.2396999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>0.98696600000000001</v>
-          </cell>
-          <cell r="G18">
-            <v>9.7097000000000003E-2</v>
-          </cell>
-          <cell r="H18">
-            <v>2.6690999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>0.96422200000000002</v>
-          </cell>
-          <cell r="G19">
-            <v>0.218893</v>
-          </cell>
-          <cell r="H19">
-            <v>7.6037999999999994E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>0.91003800000000001</v>
-          </cell>
-          <cell r="G20">
-            <v>0.43407000000000001</v>
-          </cell>
-          <cell r="H20">
-            <v>0.21226999999999999</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>0.980742</v>
-          </cell>
-          <cell r="G21">
-            <v>0.130499</v>
-          </cell>
-          <cell r="H21">
-            <v>3.9999E-2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>0.98552600000000001</v>
-          </cell>
-          <cell r="G22">
-            <v>0.10675999999999999</v>
-          </cell>
-          <cell r="H22">
-            <v>2.9742000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>0.97945000000000004</v>
-          </cell>
-          <cell r="G23">
-            <v>0.13639399999999999</v>
-          </cell>
-          <cell r="H23">
-            <v>4.2842999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>0.97561799999999999</v>
-          </cell>
-          <cell r="G24">
-            <v>0.17430899999999999</v>
-          </cell>
-          <cell r="H24">
-            <v>5.0963000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>0.96298099999999998</v>
-          </cell>
-          <cell r="G25">
-            <v>0.22198599999999999</v>
-          </cell>
-          <cell r="H25">
-            <v>7.9200999999999994E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>0.98035099999999997</v>
-          </cell>
-          <cell r="G26">
-            <v>0.13781199999999999</v>
-          </cell>
-          <cell r="H26">
-            <v>4.0793000000000003E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>0.98496499999999998</v>
-          </cell>
-          <cell r="G27">
-            <v>0.114411</v>
-          </cell>
-          <cell r="H27">
-            <v>3.0844E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>0.960503</v>
-          </cell>
-          <cell r="G28">
-            <v>0.23169500000000001</v>
-          </cell>
-          <cell r="H28">
-            <v>8.4334999999999993E-2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>0.96950599999999998</v>
-          </cell>
-          <cell r="G29">
-            <v>0.19667200000000001</v>
-          </cell>
-          <cell r="H29">
-            <v>6.4133999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>0.98382499999999995</v>
-          </cell>
-          <cell r="G30">
-            <v>0.12472999999999999</v>
-          </cell>
-          <cell r="H30">
-            <v>3.3375000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>0.98375699999999999</v>
-          </cell>
-          <cell r="G31">
-            <v>0.124263</v>
-          </cell>
-          <cell r="H31">
-            <v>3.3473999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>0.98458199999999996</v>
-          </cell>
-          <cell r="G32">
-            <v>0.116706</v>
-          </cell>
-          <cell r="H32">
-            <v>3.1642000000000003E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>0.95161099999999998</v>
-          </cell>
-          <cell r="G33">
-            <v>0.26917000000000002</v>
-          </cell>
-          <cell r="H33">
-            <v>0.10491200000000001</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="F34">
-            <v>0.98706199999999999</v>
-          </cell>
-          <cell r="G34">
-            <v>0.104962</v>
-          </cell>
-          <cell r="H34">
-            <v>2.6504E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="F35">
-            <v>0.88937500000000003</v>
-          </cell>
-          <cell r="G35">
-            <v>0.51061500000000004</v>
-          </cell>
-          <cell r="H35">
-            <v>0.26843800000000001</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="F36">
-            <v>0.97740899999999997</v>
-          </cell>
-          <cell r="G36">
-            <v>0.16461600000000001</v>
-          </cell>
-          <cell r="H36">
-            <v>4.6913000000000003E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37">
-            <v>0.98707500000000004</v>
-          </cell>
-          <cell r="G37">
-            <v>0.101101</v>
-          </cell>
-          <cell r="H37">
-            <v>2.6408000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="F38">
-            <v>0.901509</v>
-          </cell>
-          <cell r="G38">
-            <v>0.45562399999999997</v>
-          </cell>
-          <cell r="H38">
-            <v>0.23675599999999999</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="F39">
-            <v>0.89332400000000001</v>
-          </cell>
-          <cell r="G39">
-            <v>0.50095299999999998</v>
-          </cell>
-          <cell r="H39">
-            <v>0.25712099999999999</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="F40">
-            <v>0.96401400000000004</v>
-          </cell>
-          <cell r="G40">
-            <v>0.227327</v>
-          </cell>
-          <cell r="H40">
-            <v>7.6469999999999996E-2</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="F41">
-            <v>0.95913999999999999</v>
-          </cell>
-          <cell r="G41">
-            <v>0.24715999999999999</v>
-          </cell>
-          <cell r="H41">
-            <v>8.7722999999999995E-2</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="F42">
-            <v>0.90127199999999996</v>
-          </cell>
-          <cell r="G42">
-            <v>0.454015</v>
-          </cell>
-          <cell r="H42">
-            <v>0.23749400000000001</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="F43">
-            <v>0.89525399999999999</v>
-          </cell>
-          <cell r="G43">
-            <v>0.46276600000000001</v>
-          </cell>
-          <cell r="H43">
-            <v>0.25537100000000001</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="F44">
-            <v>0.97653500000000004</v>
-          </cell>
-          <cell r="G44">
-            <v>0.16755100000000001</v>
-          </cell>
-          <cell r="H44">
-            <v>4.8854000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="F45">
-            <v>0.90531200000000001</v>
-          </cell>
-          <cell r="G45">
-            <v>0.43821300000000002</v>
-          </cell>
-          <cell r="H45">
-            <v>0.22580900000000001</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="F46">
-            <v>0.95673200000000003</v>
-          </cell>
-          <cell r="G46">
-            <v>0.25493399999999999</v>
-          </cell>
-          <cell r="H46">
-            <v>9.3456999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="F47">
-            <v>0.88951999999999998</v>
-          </cell>
-          <cell r="G47">
-            <v>0.49723299999999998</v>
-          </cell>
-          <cell r="H47">
-            <v>0.269812</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="F48">
-            <v>0.94106400000000001</v>
-          </cell>
-          <cell r="G48">
-            <v>0.30825999999999998</v>
-          </cell>
-          <cell r="H48">
-            <v>0.13212599999999999</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="F49">
-            <v>0.89688500000000004</v>
-          </cell>
-          <cell r="G49">
-            <v>0.45345099999999999</v>
-          </cell>
-          <cell r="H49">
-            <v>0.25083899999999998</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="F50">
-            <v>0.881019</v>
-          </cell>
-          <cell r="G50">
-            <v>0.52862299999999995</v>
-          </cell>
-          <cell r="H50">
-            <v>0.29339100000000001</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="F51">
-            <v>0.88198100000000001</v>
-          </cell>
-          <cell r="G51">
-            <v>0.53273800000000004</v>
-          </cell>
-          <cell r="H51">
-            <v>0.29009800000000002</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="F52">
-            <v>0.89061699999999999</v>
-          </cell>
-          <cell r="G52">
-            <v>0.51240600000000003</v>
-          </cell>
-          <cell r="H52">
-            <v>0.26429799999999998</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="F53">
-            <v>0.95213800000000004</v>
-          </cell>
-          <cell r="G53">
-            <v>0.274808</v>
-          </cell>
-          <cell r="H53">
-            <v>0.103492</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="F54">
-            <v>0.89633099999999999</v>
-          </cell>
-          <cell r="G54">
-            <v>0.490282</v>
-          </cell>
-          <cell r="H54">
-            <v>0.24865499999999999</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="F55">
-            <v>0.88866000000000001</v>
-          </cell>
-          <cell r="G55">
-            <v>0.47492800000000002</v>
-          </cell>
-          <cell r="H55">
-            <v>0.27415400000000001</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="F56">
-            <v>0.83303099999999997</v>
-          </cell>
-          <cell r="G56">
-            <v>0.64540900000000001</v>
-          </cell>
-          <cell r="H56">
-            <v>0.45314500000000002</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="F57">
-            <v>0.83565400000000001</v>
-          </cell>
-          <cell r="G57">
-            <v>0.60656699999999997</v>
-          </cell>
-          <cell r="H57">
-            <v>0.45339600000000002</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="F58">
-            <v>0.88819400000000004</v>
-          </cell>
-          <cell r="G58">
-            <v>0.50539699999999999</v>
-          </cell>
-          <cell r="H58">
-            <v>0.27282299999999998</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="F59">
-            <v>0.82128900000000005</v>
-          </cell>
-          <cell r="G59">
-            <v>0.63223799999999997</v>
-          </cell>
-          <cell r="H59">
-            <v>0.49532199999999998</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="F60">
-            <v>0.93130299999999999</v>
-          </cell>
-          <cell r="G60">
-            <v>0.34954800000000003</v>
-          </cell>
-          <cell r="H60">
-            <v>0.15436</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="F61">
-            <v>0.894841</v>
-          </cell>
-          <cell r="G61">
-            <v>0.51014499999999996</v>
-          </cell>
-          <cell r="H61">
-            <v>0.25175599999999998</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="F62">
-            <v>0.88936099999999996</v>
-          </cell>
-          <cell r="G62">
-            <v>0.494232</v>
-          </cell>
-          <cell r="H62">
-            <v>0.27053899999999997</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="F63">
-            <v>0.88846400000000003</v>
-          </cell>
-          <cell r="G63">
-            <v>0.47723599999999999</v>
-          </cell>
-          <cell r="H63">
-            <v>0.27458700000000003</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="F64">
-            <v>0.91354500000000005</v>
-          </cell>
-          <cell r="G64">
-            <v>0.41317999999999999</v>
-          </cell>
-          <cell r="H64">
-            <v>0.20416000000000001</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="F65">
-            <v>0.89933099999999999</v>
-          </cell>
-          <cell r="G65">
-            <v>0.45192700000000002</v>
-          </cell>
-          <cell r="H65">
-            <v>0.243232</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="F66">
-            <v>0.91256300000000001</v>
-          </cell>
-          <cell r="G66">
-            <v>0.41745399999999999</v>
-          </cell>
-          <cell r="H66">
-            <v>0.20655799999999999</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="F67">
-            <v>0.88769699999999996</v>
-          </cell>
-          <cell r="G67">
-            <v>0.48061700000000002</v>
-          </cell>
-          <cell r="H67">
-            <v>0.27615800000000001</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="F68">
-            <v>0.889602</v>
-          </cell>
-          <cell r="G68">
-            <v>0.47392800000000002</v>
-          </cell>
-          <cell r="H68">
-            <v>0.27045999999999998</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="F69">
-            <v>0.82286899999999996</v>
-          </cell>
-          <cell r="G69">
-            <v>0.64785300000000001</v>
-          </cell>
-          <cell r="H69">
-            <v>0.50657099999999999</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="F70">
-            <v>0.86878200000000005</v>
-          </cell>
-          <cell r="G70">
-            <v>0.56856499999999999</v>
-          </cell>
-          <cell r="H70">
-            <v>0.33028400000000002</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="F71">
-            <v>0.86929500000000004</v>
-          </cell>
-          <cell r="G71">
-            <v>0.51702400000000004</v>
-          </cell>
-          <cell r="H71">
-            <v>0.33065299999999997</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="F72">
-            <v>0.85911899999999997</v>
-          </cell>
-          <cell r="G72">
-            <v>0.60229200000000005</v>
-          </cell>
-          <cell r="H72">
-            <v>0.360377</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="F73">
-            <v>0.80988800000000005</v>
-          </cell>
-          <cell r="G73">
-            <v>0.64824599999999999</v>
-          </cell>
-          <cell r="H73">
-            <v>0.51974500000000001</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="F74">
-            <v>0.80916399999999999</v>
-          </cell>
-          <cell r="G74">
-            <v>0.647096</v>
-          </cell>
-          <cell r="H74">
-            <v>0.51981999999999995</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="F75">
-            <v>0.89974399999999999</v>
-          </cell>
-          <cell r="G75">
-            <v>0.45513199999999998</v>
-          </cell>
-          <cell r="H75">
-            <v>0.241893</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="F76">
-            <v>0.82169700000000001</v>
-          </cell>
-          <cell r="G76">
-            <v>0.62840099999999999</v>
-          </cell>
-          <cell r="H76">
-            <v>0.49202400000000002</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="F77">
-            <v>0.82589800000000002</v>
-          </cell>
-          <cell r="G77">
-            <v>0.63776299999999997</v>
-          </cell>
-          <cell r="H77">
-            <v>0.487348</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="F78">
-            <v>0.85603700000000005</v>
-          </cell>
-          <cell r="G78">
-            <v>0.58389400000000002</v>
-          </cell>
-          <cell r="H78">
-            <v>0.418433</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="F79">
-            <v>0.90616699999999994</v>
-          </cell>
-          <cell r="G79">
-            <v>0.43975399999999998</v>
-          </cell>
-          <cell r="H79">
-            <v>0.22298100000000001</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="F80">
-            <v>0.85543800000000003</v>
-          </cell>
-          <cell r="G80">
-            <v>0.62422299999999997</v>
-          </cell>
-          <cell r="H80">
-            <v>0.37232199999999999</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="F81">
-            <v>0.88653300000000002</v>
-          </cell>
-          <cell r="G81">
-            <v>0.48243999999999998</v>
-          </cell>
-          <cell r="H81">
-            <v>0.27944000000000002</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="F82">
-            <v>0.80846799999999996</v>
-          </cell>
-          <cell r="G82">
-            <v>0.655339</v>
-          </cell>
-          <cell r="H82">
-            <v>0.52398299999999998</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="F83">
-            <v>0.81039499999999998</v>
-          </cell>
-          <cell r="G83">
-            <v>0.65160399999999996</v>
-          </cell>
-          <cell r="H83">
-            <v>0.51703500000000002</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="F84">
-            <v>0.82760299999999998</v>
-          </cell>
-          <cell r="G84">
-            <v>0.59888799999999998</v>
-          </cell>
-          <cell r="H84">
-            <v>0.48416999999999999</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="F85">
-            <v>0.80876000000000003</v>
-          </cell>
-          <cell r="G85">
-            <v>0.65707300000000002</v>
-          </cell>
-          <cell r="H85">
-            <v>0.52268800000000004</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="F86">
-            <v>0.89110100000000003</v>
-          </cell>
-          <cell r="G86">
-            <v>0.48289900000000002</v>
-          </cell>
-          <cell r="H86">
-            <v>0.26516699999999999</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="F87">
-            <v>0.81886599999999998</v>
-          </cell>
-          <cell r="G87">
-            <v>0.65793800000000002</v>
-          </cell>
-          <cell r="H87">
-            <v>0.51690100000000005</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="F88">
-            <v>0.81023199999999995</v>
-          </cell>
-          <cell r="G88">
-            <v>0.65453899999999998</v>
-          </cell>
-          <cell r="H88">
-            <v>0.51807700000000001</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="F89">
-            <v>0.81001699999999999</v>
-          </cell>
-          <cell r="G89">
-            <v>0.65478599999999998</v>
-          </cell>
-          <cell r="H89">
-            <v>0.518405</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="F90">
-            <v>0.79370600000000002</v>
-          </cell>
-          <cell r="G90">
-            <v>0.65583400000000003</v>
-          </cell>
-          <cell r="H90">
-            <v>0.53947199999999995</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="F91">
-            <v>0.879556</v>
-          </cell>
-          <cell r="G91">
-            <v>0.50684499999999999</v>
-          </cell>
-          <cell r="H91">
-            <v>0.29892400000000002</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="F92">
-            <v>0.81539099999999998</v>
-          </cell>
-          <cell r="G92">
-            <v>0.66903599999999996</v>
-          </cell>
-          <cell r="H92">
-            <v>0.53291900000000003</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="F93">
-            <v>0.82284400000000002</v>
-          </cell>
-          <cell r="G93">
-            <v>0.64824899999999996</v>
-          </cell>
-          <cell r="H93">
-            <v>0.49115300000000001</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="F94">
-            <v>0.81839399999999995</v>
-          </cell>
-          <cell r="G94">
-            <v>0.665215</v>
-          </cell>
-          <cell r="H94">
-            <v>0.52541499999999997</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="F95">
-            <v>0.82795200000000002</v>
-          </cell>
-          <cell r="G95">
-            <v>0.63628499999999999</v>
-          </cell>
-          <cell r="H95">
-            <v>0.48180499999999998</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="F96">
-            <v>0.80983400000000005</v>
-          </cell>
-          <cell r="G96">
-            <v>0.65505000000000002</v>
-          </cell>
-          <cell r="H96">
-            <v>0.51790999999999998</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="F97">
-            <v>0.81040100000000004</v>
-          </cell>
-          <cell r="G97">
-            <v>0.65990700000000002</v>
-          </cell>
-          <cell r="H97">
-            <v>0.51836499999999996</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="F98">
-            <v>0.80971599999999999</v>
-          </cell>
-          <cell r="G98">
-            <v>0.65739400000000003</v>
-          </cell>
-          <cell r="H98">
-            <v>0.51992000000000005</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="F99">
-            <v>0.79586800000000002</v>
-          </cell>
-          <cell r="G99">
-            <v>0.68151799999999996</v>
-          </cell>
-          <cell r="H99">
-            <v>0.58672999999999997</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="F100">
-            <v>0.82292100000000001</v>
-          </cell>
-          <cell r="G100">
-            <v>0.65663899999999997</v>
-          </cell>
-          <cell r="H100">
-            <v>0.49805199999999999</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="F101">
-            <v>0.82434200000000002</v>
-          </cell>
-          <cell r="G101">
-            <v>0.65365300000000004</v>
-          </cell>
-          <cell r="H101">
-            <v>0.50536499999999995</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2000,13 +882,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="16">
         <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2026,107 +908,107 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="14">
-        <f>MIN(DATA!E$2:E$101)</f>
+        <f>MIN(DATA!E$2:E$100)</f>
         <v>0</v>
       </c>
       <c r="C4" s="14">
-        <f>MIN([1]DATA!F$2:F$126)</f>
-        <v>0.79370600000000002</v>
+        <f>MIN(DATA!F$2:F$100)</f>
+        <v>0.61501300000000003</v>
       </c>
       <c r="D4" s="14">
-        <f>MIN([1]DATA!G$2:G$126)</f>
+        <f>MIN(DATA!G$2:G$100)</f>
         <v>0</v>
       </c>
       <c r="E4" s="14">
-        <f>MIN([1]DATA!H$2:H$126)</f>
+        <f>MIN(DATA!H$2:H$100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="14">
-        <f>MAX(DATA!E$2:E$101)</f>
-        <v>4.2175999999999998E-2</v>
+        <f>MAX(DATA!E$2:E$100)</f>
+        <v>4.7717000000000002E-2</v>
       </c>
       <c r="C5" s="14">
-        <f>MAX([1]DATA!F$2:F$126)</f>
+        <f>MAX(DATA!F$2:F$100)</f>
         <v>1</v>
       </c>
       <c r="D5" s="14">
-        <f>MAX([1]DATA!G$2:G$126)</f>
-        <v>0.68151799999999996</v>
+        <f>MAX(DATA!G$2:G$100)</f>
+        <v>1.2111769999999999</v>
       </c>
       <c r="E5" s="14">
-        <f>MAX([1]DATA!H$2:H$126)</f>
-        <v>0.58672999999999997</v>
+        <f>MAX(DATA!H$2:H$100)</f>
+        <v>1.100298</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" s="14">
-        <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>1.8090739999999998E-2</v>
+        <f>AVERAGE(DATA!E$2:E$100)</f>
+        <v>1.7009727272727274E-2</v>
       </c>
       <c r="C6" s="14">
-        <f>AVERAGE([1]DATA!F$2:F$126)</f>
-        <v>0.90578678999999951</v>
+        <f>AVERAGE(DATA!F$2:F$100)</f>
+        <v>0.71521155555555571</v>
       </c>
       <c r="D6" s="14">
-        <f>AVERAGE([1]DATA!G$2:G$126)</f>
-        <v>0.39543320000000004</v>
+        <f>AVERAGE(DATA!G$2:G$100)</f>
+        <v>0.99245259595959656</v>
       </c>
       <c r="E6" s="14">
-        <f>AVERAGE([1]DATA!H$2:H$126)</f>
-        <v>0.24351992000000006</v>
+        <f>AVERAGE(DATA!H$2:H$100)</f>
+        <v>0.80984243434343428</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="14">
-        <f>MEDIAN(DATA!E$2:E$101)</f>
-        <v>1.4710000000000001E-2</v>
+        <f>MEDIAN(DATA!E$2:E$100)</f>
+        <v>1.5053E-2</v>
       </c>
       <c r="C7" s="14">
-        <f>MEDIAN([1]DATA!F$2:F$126)</f>
-        <v>0.89810800000000002</v>
+        <f>MEDIAN(DATA!F$2:F$100)</f>
+        <v>0.69987699999999997</v>
       </c>
       <c r="D7" s="14">
-        <f>MEDIAN([1]DATA!G$2:G$126)</f>
-        <v>0.45537799999999995</v>
+        <f>MEDIAN(DATA!G$2:G$100)</f>
+        <v>1.0189010000000001</v>
       </c>
       <c r="E7" s="14">
-        <f>MEDIAN([1]DATA!H$2:H$126)</f>
-        <v>0.24594349999999998</v>
+        <f>MEDIAN(DATA!H$2:H$100)</f>
+        <v>0.86155899999999996</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="19">
-        <f>STDEV(DATA!E$2:E$101)</f>
-        <v>1.2457498711777558E-2</v>
+        <f>STDEV(DATA!E$2:E$100)</f>
+        <v>8.980053398343785E-3</v>
       </c>
       <c r="C8" s="19">
-        <f>STDEV([1]DATA!F$2:F$126)</f>
-        <v>6.6326489479792528E-2</v>
+        <f>STDEV(DATA!F$2:F$100)</f>
+        <v>6.5929298397667022E-2</v>
       </c>
       <c r="D8" s="19">
-        <f>STDEV([1]DATA!G$2:G$126)</f>
-        <v>0.21624636864605626</v>
+        <f>STDEV(DATA!G$2:G$100)</f>
+        <v>0.17179894350717212</v>
       </c>
       <c r="E8" s="19">
-        <f>STDEV([1]DATA!H$2:H$126)</f>
-        <v>0.18822575676986777</v>
+        <f>STDEV(DATA!H$2:H$100)</f>
+        <v>0.2016944833039008</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2138,15 +1020,15 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D11" s="21">
         <v>100</v>
@@ -2154,7 +1036,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="16">
         <f>B1-D11</f>
@@ -2165,46 +1047,46 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="21">
-        <f>COUNTIF(DATA!E2:E101, "&lt;0.01")</f>
-        <v>41</v>
+        <f>COUNTIF(DATA!E2:E100, "&lt;0.01")</f>
+        <v>27</v>
       </c>
       <c r="E13" s="25">
         <f>D13/D11</f>
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="21">
-        <f>COUNTIF(DATA!F2:F101, "&gt;0.95")</f>
+        <f>COUNTIF(DATA!F2:F100, "&gt;0.95")</f>
         <v>1</v>
       </c>
       <c r="E14" s="25">
         <f>D14/D13</f>
-        <v>2.4390243902439025E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15">
-        <f>COUNTIF(DATA!C2:C101, FALSE)</f>
-        <v>100</v>
+        <f>COUNTIF(DATA!C2:C100, FALSE)</f>
+        <v>5</v>
       </c>
       <c r="E15" s="25">
         <f>D15/D11</f>
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -2214,7 +1096,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28E5E95-E91E-9143-85EF-7C3D356CC836}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2226,13 +1108,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2266,16 +1148,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C2" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="8">
-        <v>3308385.800727</v>
+        <v>3295873.653473</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
@@ -2290,1130 +1172,1131 @@
         <v>0</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="14">
-        <v>3312093.8900159998</v>
+        <v>3305129.6300070002</v>
       </c>
       <c r="E3" s="15">
-        <v>1.121E-3</v>
+        <v>2.8080000000000002E-3</v>
       </c>
       <c r="F3" s="15">
-        <v>0.808365</v>
+        <v>0.91569500000000004</v>
       </c>
       <c r="G3" s="15">
-        <v>0.67576199999999997</v>
+        <v>0.458341</v>
       </c>
       <c r="H3" s="15">
-        <v>0.53689900000000002</v>
+        <v>0.196048</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14">
-        <v>3315478.039355</v>
-      </c>
-      <c r="E4" s="15">
-        <v>2.1440000000000001E-3</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0.68677600000000005</v>
-      </c>
-      <c r="G4" s="15">
-        <v>1.0461549999999999</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0.885764</v>
+      <c r="A4" s="10">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>3309184.9011579999</v>
+      </c>
+      <c r="E4" s="13">
+        <v>4.0390000000000001E-3</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.80626500000000001</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.72770500000000005</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.56607799999999997</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="14">
-        <v>3315986.30008</v>
+        <v>3313313.7335029999</v>
       </c>
       <c r="E5" s="15">
-        <v>2.297E-3</v>
+        <v>5.2909999999999997E-3</v>
       </c>
       <c r="F5" s="15">
-        <v>0.81889699999999999</v>
+        <v>0.78650500000000001</v>
       </c>
       <c r="G5" s="15">
-        <v>0.73949399999999998</v>
+        <v>0.81373700000000004</v>
       </c>
       <c r="H5" s="15">
-        <v>0.53217700000000001</v>
+        <v>0.57220099999999996</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="14">
-        <v>3317601.7524999999</v>
+        <v>3314507.7848379998</v>
       </c>
       <c r="E6" s="15">
-        <v>2.7859999999999998E-3</v>
+        <v>5.6540000000000002E-3</v>
       </c>
       <c r="F6" s="15">
-        <v>0.70862199999999997</v>
+        <v>0.768953</v>
       </c>
       <c r="G6" s="15">
-        <v>0.953345</v>
+        <v>0.87025799999999998</v>
       </c>
       <c r="H6" s="15">
-        <v>0.74423300000000003</v>
+        <v>0.65345600000000004</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="14">
-        <v>3318209.5906190001</v>
+        <v>3315207.2413960001</v>
       </c>
       <c r="E7" s="15">
-        <v>2.9689999999999999E-3</v>
+        <v>5.8659999999999997E-3</v>
       </c>
       <c r="F7" s="15">
-        <v>0.66669199999999995</v>
+        <v>0.67822300000000002</v>
       </c>
       <c r="G7" s="15">
-        <v>1.0416859999999999</v>
+        <v>1.0189010000000001</v>
       </c>
       <c r="H7" s="15">
-        <v>0.89030799999999999</v>
+        <v>0.87830600000000003</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="14">
-        <v>3318212.3501200001</v>
+        <v>3316703.6796949999</v>
       </c>
       <c r="E8" s="15">
-        <v>2.97E-3</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F8" s="15">
-        <v>0.821384</v>
+        <v>0.81791499999999995</v>
       </c>
       <c r="G8" s="15">
-        <v>0.76663899999999996</v>
+        <v>0.70622700000000005</v>
       </c>
       <c r="H8" s="15">
-        <v>0.49139500000000003</v>
+        <v>0.498367</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="14">
-        <v>3322134.7378500002</v>
+        <v>3316835.9183060001</v>
       </c>
       <c r="E9" s="15">
-        <v>4.156E-3</v>
+        <v>6.3600000000000002E-3</v>
       </c>
       <c r="F9" s="15">
-        <v>0.77090800000000004</v>
+        <v>0.79395099999999996</v>
       </c>
       <c r="G9" s="15">
-        <v>0.84049600000000002</v>
+        <v>0.80642000000000003</v>
       </c>
       <c r="H9" s="15">
-        <v>0.60369600000000001</v>
+        <v>0.55801400000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <v>3322456.7978110001</v>
+        <v>3317497.0411279998</v>
       </c>
       <c r="E10" s="15">
-        <v>4.2529999999999998E-3</v>
+        <v>6.561E-3</v>
       </c>
       <c r="F10" s="15">
-        <v>0.81653399999999998</v>
+        <v>0.777976</v>
       </c>
       <c r="G10" s="15">
-        <v>0.71648999999999996</v>
+        <v>0.85195299999999996</v>
       </c>
       <c r="H10" s="15">
-        <v>0.50834299999999999</v>
+        <v>0.66877200000000003</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="14">
-        <v>3326352.4279829999</v>
+        <v>3318277.84986</v>
       </c>
       <c r="E11" s="15">
-        <v>5.4310000000000001E-3</v>
+        <v>6.7980000000000002E-3</v>
       </c>
       <c r="F11" s="15">
-        <v>0.80982699999999996</v>
+        <v>0.76966199999999996</v>
       </c>
       <c r="G11" s="15">
-        <v>0.77162600000000003</v>
+        <v>0.85231100000000004</v>
       </c>
       <c r="H11" s="15">
-        <v>0.49013299999999999</v>
+        <v>0.65258700000000003</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="14">
-        <v>3326420.924838</v>
+        <v>3318716.3744890001</v>
       </c>
       <c r="E12" s="15">
-        <v>5.4510000000000001E-3</v>
+        <v>6.9309999999999997E-3</v>
       </c>
       <c r="F12" s="15">
-        <v>0.68509299999999995</v>
+        <v>0.74631099999999995</v>
       </c>
       <c r="G12" s="15">
-        <v>1.0266280000000001</v>
+        <v>0.89912899999999996</v>
       </c>
       <c r="H12" s="15">
-        <v>0.85781300000000005</v>
+        <v>0.73252899999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="14">
-        <v>3326724.7857900001</v>
+        <v>3320234.9768119999</v>
       </c>
       <c r="E13" s="15">
-        <v>5.5430000000000002E-3</v>
+        <v>7.391E-3</v>
       </c>
       <c r="F13" s="15">
-        <v>0.81548500000000002</v>
+        <v>0.78082300000000004</v>
       </c>
       <c r="G13" s="15">
-        <v>0.76211899999999999</v>
+        <v>0.87200599999999995</v>
       </c>
       <c r="H13" s="15">
-        <v>0.4879</v>
+        <v>0.61290900000000004</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14">
+        <v>3320811.9511699998</v>
+      </c>
+      <c r="E14" s="15">
+        <v>7.5669999999999999E-3</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.64338700000000004</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1.1461250000000001</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1.0270159999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="26">
         <v>22</v>
       </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14">
-        <v>3326803.4073939999</v>
-      </c>
-      <c r="E14" s="15">
-        <v>5.5669999999999999E-3</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0.76167799999999997</v>
-      </c>
-      <c r="G14" s="15">
-        <v>0.847082</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0.67923999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>4</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <v>3326930.9354170002</v>
-      </c>
-      <c r="E15" s="13">
-        <v>5.6049999999999997E-3</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0.763714</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0.83555199999999996</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0.62475000000000003</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B15" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="28">
+        <v>3321270.1063399999</v>
+      </c>
+      <c r="E15" s="29">
+        <v>7.7060000000000002E-3</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0.79908800000000002</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0.79787399999999997</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0.55556700000000003</v>
+      </c>
+      <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="14">
-        <v>3326989.7228000001</v>
+        <v>3322402.4649109999</v>
       </c>
       <c r="E16" s="15">
-        <v>5.6230000000000004E-3</v>
+        <v>8.0490000000000006E-3</v>
       </c>
       <c r="F16" s="15">
-        <v>0.778505</v>
+        <v>0.77974299999999996</v>
       </c>
       <c r="G16" s="15">
-        <v>0.81446700000000005</v>
+        <v>0.86340099999999997</v>
       </c>
       <c r="H16" s="15">
-        <v>0.62697999999999998</v>
+        <v>0.641567</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>89</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="14">
-        <v>3328007.5099760001</v>
+        <v>3322578.4087379999</v>
       </c>
       <c r="E17" s="15">
-        <v>5.9309999999999996E-3</v>
+        <v>8.1019999999999998E-3</v>
       </c>
       <c r="F17" s="15">
-        <v>0.71983200000000003</v>
+        <v>0.82715000000000005</v>
       </c>
       <c r="G17" s="15">
-        <v>0.99577800000000005</v>
+        <v>0.75489600000000001</v>
       </c>
       <c r="H17" s="15">
-        <v>0.77118900000000001</v>
+        <v>0.45378200000000002</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="14">
-        <v>3328019.7041739998</v>
+        <v>3323533.1850910001</v>
       </c>
       <c r="E18" s="15">
-        <v>5.9350000000000002E-3</v>
+        <v>8.3920000000000002E-3</v>
       </c>
       <c r="F18" s="15">
-        <v>0.71367599999999998</v>
+        <v>0.64661199999999996</v>
       </c>
       <c r="G18" s="15">
-        <v>0.99676299999999995</v>
+        <v>1.137732</v>
       </c>
       <c r="H18" s="15">
-        <v>0.78563799999999995</v>
+        <v>1.000021</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="14">
-        <v>3329143.0068140002</v>
+        <v>3324146.9901990001</v>
       </c>
       <c r="E19" s="15">
-        <v>6.2740000000000001E-3</v>
+        <v>8.5780000000000006E-3</v>
       </c>
       <c r="F19" s="15">
-        <v>0.76846099999999995</v>
+        <v>0.74784899999999999</v>
       </c>
       <c r="G19" s="15">
-        <v>0.89072200000000001</v>
+        <v>0.935581</v>
       </c>
       <c r="H19" s="15">
-        <v>0.65971299999999999</v>
+        <v>0.70725199999999999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="14">
-        <v>3331488.4754329999</v>
+        <v>3324457.937345</v>
       </c>
       <c r="E20" s="15">
-        <v>6.9829999999999996E-3</v>
+        <v>8.6730000000000002E-3</v>
       </c>
       <c r="F20" s="15">
-        <v>0.78349899999999995</v>
+        <v>0.84570599999999996</v>
       </c>
       <c r="G20" s="15">
-        <v>0.84720700000000004</v>
+        <v>0.72558500000000004</v>
       </c>
       <c r="H20" s="15">
-        <v>0.59819500000000003</v>
+        <v>0.40503699999999998</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="14">
-        <v>3331735.8121580002</v>
+        <v>3324803.5360300001</v>
       </c>
       <c r="E21" s="15">
-        <v>7.058E-3</v>
+        <v>8.7779999999999993E-3</v>
       </c>
       <c r="F21" s="15">
-        <v>0.75687000000000004</v>
+        <v>0.75192499999999995</v>
       </c>
       <c r="G21" s="15">
-        <v>0.89860600000000002</v>
+        <v>0.88789700000000005</v>
       </c>
       <c r="H21" s="15">
-        <v>0.68664599999999998</v>
+        <v>0.68654099999999996</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="14">
-        <v>3332557.9349639998</v>
+        <v>3325176.6984919999</v>
       </c>
       <c r="E22" s="15">
-        <v>7.306E-3</v>
+        <v>8.8909999999999996E-3</v>
       </c>
       <c r="F22" s="15">
-        <v>0.79759599999999997</v>
+        <v>0.65095099999999995</v>
       </c>
       <c r="G22" s="15">
-        <v>0.77918200000000004</v>
+        <v>1.1235280000000001</v>
       </c>
       <c r="H22" s="15">
-        <v>0.57173399999999996</v>
+        <v>0.96717900000000001</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="14">
-        <v>3332745.3614830002</v>
+        <v>3326398.6293589999</v>
       </c>
       <c r="E23" s="15">
-        <v>7.3629999999999998E-3</v>
+        <v>9.2619999999999994E-3</v>
       </c>
       <c r="F23" s="15">
-        <v>0.78668899999999997</v>
+        <v>0.77758499999999997</v>
       </c>
       <c r="G23" s="15">
-        <v>0.82890900000000001</v>
+        <v>0.850302</v>
       </c>
       <c r="H23" s="15">
-        <v>0.56262800000000002</v>
+        <v>0.63220299999999996</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="14">
-        <v>3333999.1748310002</v>
+        <v>3326534.8768079998</v>
       </c>
       <c r="E24" s="15">
-        <v>7.7419999999999998E-3</v>
+        <v>9.3030000000000005E-3</v>
       </c>
       <c r="F24" s="15">
-        <v>0.74430499999999999</v>
+        <v>0.63570400000000005</v>
       </c>
       <c r="G24" s="15">
-        <v>0.89677799999999996</v>
+        <v>1.1632910000000001</v>
       </c>
       <c r="H24" s="15">
-        <v>0.730244</v>
+        <v>1.0367470000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="14">
-        <v>3334633.2972710002</v>
+        <v>3327790.2355470001</v>
       </c>
       <c r="E25" s="15">
-        <v>7.9340000000000001E-3</v>
+        <v>9.6839999999999999E-3</v>
       </c>
       <c r="F25" s="15">
-        <v>0.62880800000000003</v>
+        <v>0.65326300000000004</v>
       </c>
       <c r="G25" s="15">
-        <v>1.105869</v>
+        <v>1.09653</v>
       </c>
       <c r="H25" s="15">
-        <v>1.0079180000000001</v>
+        <v>0.94173300000000004</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="14">
-        <v>3335046.819108</v>
+        <v>3328217.6098469999</v>
       </c>
       <c r="E26" s="15">
-        <v>8.0590000000000002E-3</v>
+        <v>9.8130000000000005E-3</v>
       </c>
       <c r="F26" s="15">
-        <v>0.83793300000000004</v>
+        <v>0.67322700000000002</v>
       </c>
       <c r="G26" s="15">
-        <v>0.72579899999999997</v>
+        <v>1.1026279999999999</v>
       </c>
       <c r="H26" s="15">
-        <v>0.40164100000000003</v>
+        <v>0.96684400000000004</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="14">
-        <v>3335099.9670879999</v>
+        <v>3328237.5415039998</v>
       </c>
       <c r="E27" s="15">
-        <v>8.0750000000000006E-3</v>
+        <v>9.8200000000000006E-3</v>
       </c>
       <c r="F27" s="15">
-        <v>0.72242200000000001</v>
+        <v>0.69603400000000004</v>
       </c>
       <c r="G27" s="15">
-        <v>0.97918700000000003</v>
+        <v>0.98570599999999997</v>
       </c>
       <c r="H27" s="15">
-        <v>0.76704000000000006</v>
+        <v>0.92715700000000001</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="14">
-        <v>3335256.0717910002</v>
+        <v>3328730.7909050002</v>
       </c>
       <c r="E28" s="15">
-        <v>8.1220000000000007E-3</v>
+        <v>9.9690000000000004E-3</v>
       </c>
       <c r="F28" s="15">
-        <v>0.72744799999999998</v>
+        <v>0.61501300000000003</v>
       </c>
       <c r="G28" s="15">
-        <v>0.92537400000000003</v>
+        <v>1.149054</v>
       </c>
       <c r="H28" s="15">
-        <v>0.74141599999999996</v>
+        <v>1.054735</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="14">
-        <v>3335498.9482140001</v>
+        <v>3329676.0371280001</v>
       </c>
       <c r="E29" s="15">
-        <v>8.1949999999999992E-3</v>
+        <v>1.0255999999999999E-2</v>
       </c>
       <c r="F29" s="15">
-        <v>0.73088500000000001</v>
+        <v>0.75130399999999997</v>
       </c>
       <c r="G29" s="15">
-        <v>0.98176799999999997</v>
+        <v>0.92435</v>
       </c>
       <c r="H29" s="15">
-        <v>0.74713300000000005</v>
+        <v>0.68734700000000004</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="14">
-        <v>3336516.4135400001</v>
+        <v>3329808.092069</v>
       </c>
       <c r="E30" s="15">
-        <v>8.5030000000000001E-3</v>
+        <v>1.0296E-2</v>
       </c>
       <c r="F30" s="15">
-        <v>0.79827899999999996</v>
+        <v>0.80005300000000001</v>
       </c>
       <c r="G30" s="15">
-        <v>0.85677499999999995</v>
+        <v>0.77607400000000004</v>
       </c>
       <c r="H30" s="15">
-        <v>0.56226500000000001</v>
+        <v>0.55562699999999998</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="14">
-        <v>3336724.3450910002</v>
+        <v>3330864.4521710002</v>
       </c>
       <c r="E31" s="15">
-        <v>8.5660000000000007E-3</v>
+        <v>1.0617E-2</v>
       </c>
       <c r="F31" s="15">
-        <v>0.77968800000000005</v>
+        <v>0.76699600000000001</v>
       </c>
       <c r="G31" s="15">
-        <v>0.84918700000000003</v>
+        <v>0.87156100000000003</v>
       </c>
       <c r="H31" s="15">
-        <v>0.65875300000000003</v>
+        <v>0.65842000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="14">
-        <v>3336980.359377</v>
+        <v>3331480.0154019999</v>
       </c>
       <c r="E32" s="15">
-        <v>8.6429999999999996E-3</v>
+        <v>1.0803E-2</v>
       </c>
       <c r="F32" s="15">
-        <v>0.761216</v>
+        <v>0.68956300000000004</v>
       </c>
       <c r="G32" s="15">
-        <v>0.91353600000000001</v>
+        <v>1.007873</v>
       </c>
       <c r="H32" s="15">
-        <v>0.65378499999999995</v>
+        <v>0.94581599999999999</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="14">
-        <v>3337481.51137</v>
+        <v>3331721.1024549999</v>
       </c>
       <c r="E33" s="15">
-        <v>8.7950000000000007E-3</v>
+        <v>1.0876E-2</v>
       </c>
       <c r="F33" s="15">
-        <v>0.78880600000000001</v>
+        <v>0.62914199999999998</v>
       </c>
       <c r="G33" s="15">
-        <v>0.85179400000000005</v>
+        <v>1.156744</v>
       </c>
       <c r="H33" s="15">
-        <v>0.56231500000000001</v>
+        <v>1.042951</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
       <c r="D34" s="14">
-        <v>3337599.6483339998</v>
+        <v>3332791.0214300002</v>
       </c>
       <c r="E34" s="15">
-        <v>8.8299999999999993E-3</v>
+        <v>1.1200999999999999E-2</v>
       </c>
       <c r="F34" s="15">
-        <v>0.78593100000000005</v>
+        <v>0.65271400000000002</v>
       </c>
       <c r="G34" s="15">
-        <v>0.85258199999999995</v>
+        <v>1.1314439999999999</v>
       </c>
       <c r="H34" s="15">
-        <v>0.55901100000000004</v>
+        <v>1.0061910000000001</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="14">
-        <v>3337863.0189009998</v>
+        <v>3333604.899892</v>
       </c>
       <c r="E35" s="15">
-        <v>8.9099999999999995E-3</v>
+        <v>1.1448E-2</v>
       </c>
       <c r="F35" s="15">
-        <v>0.75302999999999998</v>
+        <v>0.68602099999999999</v>
       </c>
       <c r="G35" s="15">
-        <v>0.90759699999999999</v>
+        <v>1.0586800000000001</v>
       </c>
       <c r="H35" s="15">
-        <v>0.67923199999999995</v>
+        <v>0.86155899999999996</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="14">
-        <v>3338220.9366799998</v>
+        <v>3336859.8013929999</v>
       </c>
       <c r="E36" s="15">
-        <v>9.018E-3</v>
+        <v>1.2435999999999999E-2</v>
       </c>
       <c r="F36" s="15">
-        <v>0.73441400000000001</v>
+        <v>0.77554000000000001</v>
       </c>
       <c r="G36" s="15">
-        <v>0.91388899999999995</v>
+        <v>0.86796300000000004</v>
       </c>
       <c r="H36" s="15">
-        <v>0.72888600000000003</v>
+        <v>0.61271500000000001</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="14">
-        <v>3338553.2197059998</v>
+        <v>3339183.6588940001</v>
       </c>
       <c r="E37" s="15">
-        <v>9.1179999999999994E-3</v>
+        <v>1.3141E-2</v>
       </c>
       <c r="F37" s="15">
-        <v>0.70939600000000003</v>
+        <v>0.68359499999999995</v>
       </c>
       <c r="G37" s="15">
-        <v>0.97876399999999997</v>
+        <v>1.079931</v>
       </c>
       <c r="H37" s="15">
-        <v>0.84428000000000003</v>
+        <v>0.90534999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="14">
-        <v>3339724.379898</v>
+        <v>3339367.7414819999</v>
       </c>
       <c r="E38" s="15">
-        <v>9.4719999999999995E-3</v>
+        <v>1.3197E-2</v>
       </c>
       <c r="F38" s="15">
-        <v>0.78635600000000005</v>
+        <v>0.80631600000000003</v>
       </c>
       <c r="G38" s="15">
-        <v>0.85336699999999999</v>
+        <v>0.80395399999999995</v>
       </c>
       <c r="H38" s="15">
-        <v>0.59158500000000003</v>
+        <v>0.52639899999999995</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="14">
-        <v>3339727.3677429999</v>
+        <v>3340099.5132780001</v>
       </c>
       <c r="E39" s="15">
-        <v>9.4730000000000005E-3</v>
+        <v>1.3419E-2</v>
       </c>
       <c r="F39" s="15">
-        <v>0.77705800000000003</v>
+        <v>0.68354499999999996</v>
       </c>
       <c r="G39" s="15">
-        <v>0.87355099999999997</v>
+        <v>1.048843</v>
       </c>
       <c r="H39" s="15">
-        <v>0.60453299999999999</v>
+        <v>0.86080599999999996</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="14">
-        <v>3339832.0360329999</v>
+        <v>3340387.6034579999</v>
       </c>
       <c r="E40" s="15">
-        <v>9.5049999999999996E-3</v>
+        <v>1.3506000000000001E-2</v>
       </c>
       <c r="F40" s="15">
-        <v>0.65388400000000002</v>
+        <v>0.70623599999999997</v>
       </c>
       <c r="G40" s="15">
-        <v>1.101421</v>
+        <v>1.0031460000000001</v>
       </c>
       <c r="H40" s="15">
-        <v>0.98662700000000003</v>
+        <v>0.83162599999999998</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="14">
-        <v>3340218.3578610001</v>
+        <v>3341699.2894140002</v>
       </c>
       <c r="E41" s="15">
-        <v>9.6220000000000003E-3</v>
+        <v>1.3904E-2</v>
       </c>
       <c r="F41" s="15">
-        <v>0.77060899999999999</v>
+        <v>0.75475099999999995</v>
       </c>
       <c r="G41" s="15">
-        <v>0.87242200000000003</v>
+        <v>0.97494599999999998</v>
       </c>
       <c r="H41" s="15">
-        <v>0.66549700000000001</v>
+        <v>0.72710600000000003</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="14">
-        <v>3341428.553905</v>
+        <v>3341725.6176789999</v>
       </c>
       <c r="E42" s="15">
-        <v>9.9880000000000004E-3</v>
+        <v>1.3912000000000001E-2</v>
       </c>
       <c r="F42" s="15">
-        <v>0.73721300000000001</v>
+        <v>0.74622699999999997</v>
       </c>
       <c r="G42" s="15">
-        <v>0.89634199999999997</v>
+        <v>0.92642800000000003</v>
       </c>
       <c r="H42" s="15">
-        <v>0.72311599999999998</v>
+        <v>0.69978499999999999</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="14">
-        <v>3346877.5328509999</v>
+        <v>3342229.2567369998</v>
       </c>
       <c r="E43" s="15">
-        <v>1.1635E-2</v>
+        <v>1.4064999999999999E-2</v>
       </c>
       <c r="F43" s="15">
-        <v>0.76290999999999998</v>
+        <v>0.75550899999999999</v>
       </c>
       <c r="G43" s="15">
-        <v>0.94067199999999995</v>
+        <v>0.91966999999999999</v>
       </c>
       <c r="H43" s="15">
-        <v>0.66922199999999998</v>
+        <v>0.68234700000000004</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="14">
-        <v>3347057.0859770002</v>
+        <v>3342672.6570830001</v>
       </c>
       <c r="E44" s="15">
-        <v>1.1689E-2</v>
+        <v>1.4199E-2</v>
       </c>
       <c r="F44" s="15">
-        <v>0.71038999999999997</v>
+        <v>0.70790900000000001</v>
       </c>
       <c r="G44" s="15">
-        <v>1.0099450000000001</v>
+        <v>1.0260100000000001</v>
       </c>
       <c r="H44" s="15">
-        <v>0.847298</v>
+        <v>0.82655199999999995</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="14">
-        <v>3347262.6037349999</v>
+        <v>3342877.9084450002</v>
       </c>
       <c r="E45" s="15">
-        <v>1.1750999999999999E-2</v>
+        <v>1.4262E-2</v>
       </c>
       <c r="F45" s="15">
-        <v>0.72553599999999996</v>
+        <v>0.77649299999999999</v>
       </c>
       <c r="G45" s="15">
-        <v>0.966943</v>
+        <v>0.87546999999999997</v>
       </c>
       <c r="H45" s="15">
-        <v>0.80123299999999997</v>
+        <v>0.59630499999999997</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -3421,1455 +2304,1429 @@
         <v>98</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="14">
-        <v>3352977.2260929998</v>
+        <v>3343495.8282079999</v>
       </c>
       <c r="E46" s="15">
-        <v>1.3478E-2</v>
+        <v>1.4449E-2</v>
       </c>
       <c r="F46" s="15">
-        <v>0.82544799999999996</v>
+        <v>0.74907199999999996</v>
       </c>
       <c r="G46" s="15">
-        <v>0.72430300000000003</v>
+        <v>0.92041399999999995</v>
       </c>
       <c r="H46" s="15">
-        <v>0.47126800000000002</v>
+        <v>0.69278099999999998</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="14">
-        <v>3353745.7502029999</v>
+        <v>3344143.2175989999</v>
       </c>
       <c r="E47" s="15">
-        <v>1.3710999999999999E-2</v>
+        <v>1.4645E-2</v>
       </c>
       <c r="F47" s="15">
-        <v>0.59160999999999997</v>
+        <v>0.67485899999999999</v>
       </c>
       <c r="G47" s="15">
-        <v>1.1996929999999999</v>
+        <v>1.1352850000000001</v>
       </c>
       <c r="H47" s="15">
-        <v>1.1867749999999999</v>
+        <v>0.96205700000000005</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="14">
-        <v>3355868.9941219999</v>
+        <v>3344402.2665320002</v>
       </c>
       <c r="E48" s="15">
-        <v>1.4352E-2</v>
+        <v>1.4723999999999999E-2</v>
       </c>
       <c r="F48" s="15">
-        <v>0.744251</v>
+        <v>0.73137399999999997</v>
       </c>
       <c r="G48" s="15">
-        <v>0.95918700000000001</v>
+        <v>0.936303</v>
       </c>
       <c r="H48" s="15">
-        <v>0.71359499999999998</v>
+        <v>0.71563200000000005</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="14">
-        <v>3356021.184417</v>
+        <v>3344412.8478930001</v>
       </c>
       <c r="E49" s="15">
-        <v>1.4397999999999999E-2</v>
+        <v>1.4727000000000001E-2</v>
       </c>
       <c r="F49" s="15">
-        <v>0.75773599999999997</v>
+        <v>0.80261700000000002</v>
       </c>
       <c r="G49" s="15">
-        <v>0.88144999999999996</v>
+        <v>0.82054000000000005</v>
       </c>
       <c r="H49" s="15">
-        <v>0.70075900000000002</v>
+        <v>0.52697099999999997</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="14">
-        <v>3356201.8509809999</v>
+        <v>3345263.621396</v>
       </c>
       <c r="E50" s="15">
-        <v>1.4453000000000001E-2</v>
+        <v>1.4985E-2</v>
       </c>
       <c r="F50" s="15">
-        <v>0.81628000000000001</v>
+        <v>0.66545299999999996</v>
       </c>
       <c r="G50" s="15">
-        <v>0.79283800000000004</v>
+        <v>1.075987</v>
       </c>
       <c r="H50" s="15">
-        <v>0.47852499999999998</v>
+        <v>0.95819200000000004</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="14">
-        <v>3356417.7882460002</v>
+        <v>3345487.4628750002</v>
       </c>
       <c r="E51" s="15">
-        <v>1.4518E-2</v>
+        <v>1.5053E-2</v>
       </c>
       <c r="F51" s="15">
-        <v>0.72366200000000003</v>
+        <v>0.74020799999999998</v>
       </c>
       <c r="G51" s="15">
-        <v>1.0065900000000001</v>
+        <v>0.95709599999999995</v>
       </c>
       <c r="H51" s="15">
-        <v>0.779895</v>
+        <v>0.70142700000000002</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="14">
-        <v>3357688.2590060001</v>
+        <v>3345577.1902310001</v>
       </c>
       <c r="E52" s="15">
-        <v>1.4902E-2</v>
+        <v>1.5081000000000001E-2</v>
       </c>
       <c r="F52" s="15">
-        <v>0.80112300000000003</v>
+        <v>0.69390799999999997</v>
       </c>
       <c r="G52" s="15">
-        <v>0.83633599999999997</v>
+        <v>1.0766279999999999</v>
       </c>
       <c r="H52" s="15">
-        <v>0.53252200000000005</v>
+        <v>0.91617400000000004</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="14">
-        <v>3358813.5994870001</v>
+        <v>3345779.002144</v>
       </c>
       <c r="E53" s="15">
-        <v>1.5242E-2</v>
+        <v>1.5141999999999999E-2</v>
       </c>
       <c r="F53" s="15">
-        <v>0.73656600000000005</v>
+        <v>0.66622300000000001</v>
       </c>
       <c r="G53" s="15">
-        <v>0.95908199999999999</v>
+        <v>1.1646259999999999</v>
       </c>
       <c r="H53" s="15">
-        <v>0.77875099999999997</v>
+        <v>0.98186700000000005</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="D54" s="14">
-        <v>3358973.9703179998</v>
+        <v>3346531.848952</v>
       </c>
       <c r="E54" s="15">
-        <v>1.5291000000000001E-2</v>
+        <v>1.537E-2</v>
       </c>
       <c r="F54" s="15">
-        <v>0.76374900000000001</v>
+        <v>0.67558200000000002</v>
       </c>
       <c r="G54" s="15">
-        <v>0.870278</v>
+        <v>1.064092</v>
       </c>
       <c r="H54" s="15">
-        <v>0.69616500000000003</v>
+        <v>0.97027200000000002</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="14">
-        <v>3360553.0570749999</v>
+        <v>3347553.2949509998</v>
       </c>
       <c r="E55" s="15">
-        <v>1.5768000000000001E-2</v>
+        <v>1.5679999999999999E-2</v>
       </c>
       <c r="F55" s="15">
-        <v>0.73999599999999999</v>
+        <v>0.71436200000000005</v>
       </c>
       <c r="G55" s="15">
-        <v>0.910941</v>
+        <v>0.97051900000000002</v>
       </c>
       <c r="H55" s="15">
-        <v>0.75026700000000002</v>
+        <v>0.789574</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="14">
-        <v>3361155.1055640001</v>
+        <v>3351710.0690870001</v>
       </c>
       <c r="E56" s="15">
-        <v>1.5949999999999999E-2</v>
+        <v>1.6941000000000001E-2</v>
       </c>
       <c r="F56" s="15">
-        <v>0.74051299999999998</v>
+        <v>0.67535199999999995</v>
       </c>
       <c r="G56" s="15">
-        <v>0.961951</v>
+        <v>1.0641499999999999</v>
       </c>
       <c r="H56" s="15">
-        <v>0.72725899999999999</v>
+        <v>0.93358600000000003</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="14">
-        <v>3363868.1938840002</v>
+        <v>3352736.2045720001</v>
       </c>
       <c r="E57" s="15">
-        <v>1.677E-2</v>
+        <v>1.7253000000000001E-2</v>
       </c>
       <c r="F57" s="15">
-        <v>0.73212999999999995</v>
+        <v>0.62104000000000004</v>
       </c>
       <c r="G57" s="15">
-        <v>0.968445</v>
+        <v>1.1834769999999999</v>
       </c>
       <c r="H57" s="15">
-        <v>0.78597300000000003</v>
+        <v>1.100298</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="14">
-        <v>3364674.022353</v>
+        <v>3354132.6493449998</v>
       </c>
       <c r="E58" s="15">
-        <v>1.7014000000000001E-2</v>
+        <v>1.7676000000000001E-2</v>
       </c>
       <c r="F58" s="15">
-        <v>0.74027600000000005</v>
+        <v>0.69580200000000003</v>
       </c>
       <c r="G58" s="15">
-        <v>0.91043600000000002</v>
+        <v>1.0647249999999999</v>
       </c>
       <c r="H58" s="15">
-        <v>0.77127800000000002</v>
+        <v>0.87659900000000002</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="14">
-        <v>3364936.2224909998</v>
+        <v>3354930.3766990001</v>
       </c>
       <c r="E59" s="15">
-        <v>1.7093000000000001E-2</v>
+        <v>1.7918E-2</v>
       </c>
       <c r="F59" s="15">
-        <v>0.76936899999999997</v>
+        <v>0.74237699999999995</v>
       </c>
       <c r="G59" s="15">
-        <v>0.90246199999999999</v>
+        <v>0.91615500000000005</v>
       </c>
       <c r="H59" s="15">
-        <v>0.64885400000000004</v>
+        <v>0.71108099999999996</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="14">
-        <v>3366240.2015559999</v>
+        <v>3355287.0231699999</v>
       </c>
       <c r="E60" s="15">
-        <v>1.7486999999999999E-2</v>
+        <v>1.8027000000000001E-2</v>
       </c>
       <c r="F60" s="15">
-        <v>0.72086399999999995</v>
+        <v>0.67038399999999998</v>
       </c>
       <c r="G60" s="15">
-        <v>1.031121</v>
+        <v>1.0559810000000001</v>
       </c>
       <c r="H60" s="15">
-        <v>0.82230899999999996</v>
+        <v>0.931002</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="14">
-        <v>3368989.1500749998</v>
+        <v>3355368.870567</v>
       </c>
       <c r="E61" s="15">
-        <v>1.8318000000000001E-2</v>
+        <v>1.8051000000000001E-2</v>
       </c>
       <c r="F61" s="15">
-        <v>0.73511199999999999</v>
+        <v>0.75756400000000002</v>
       </c>
       <c r="G61" s="15">
-        <v>0.95145900000000005</v>
+        <v>0.91404700000000005</v>
       </c>
       <c r="H61" s="15">
-        <v>0.76290500000000006</v>
+        <v>0.69903300000000002</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="14">
-        <v>3371629.6488879998</v>
+        <v>3356319.4511660002</v>
       </c>
       <c r="E62" s="15">
-        <v>1.9116000000000001E-2</v>
+        <v>1.8339999999999999E-2</v>
       </c>
       <c r="F62" s="15">
-        <v>0.70504999999999995</v>
+        <v>0.64997300000000002</v>
       </c>
       <c r="G62" s="15">
-        <v>1.0230779999999999</v>
+        <v>1.1747369999999999</v>
       </c>
       <c r="H62" s="15">
-        <v>0.84064700000000003</v>
+        <v>1.031318</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="14">
-        <v>3372191.5458669998</v>
+        <v>3356758.3637000001</v>
       </c>
       <c r="E63" s="15">
-        <v>1.9286000000000001E-2</v>
+        <v>1.8473E-2</v>
       </c>
       <c r="F63" s="15">
-        <v>0.71989000000000003</v>
+        <v>0.68606500000000004</v>
       </c>
       <c r="G63" s="15">
-        <v>0.98769399999999996</v>
+        <v>1.077969</v>
       </c>
       <c r="H63" s="15">
-        <v>0.78187200000000001</v>
+        <v>0.88039199999999995</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="14">
-        <v>3372330.5744659998</v>
+        <v>3357709.727707</v>
       </c>
       <c r="E64" s="15">
-        <v>1.9328000000000001E-2</v>
+        <v>1.8762000000000001E-2</v>
       </c>
       <c r="F64" s="15">
-        <v>0.75303100000000001</v>
+        <v>0.66330699999999998</v>
       </c>
       <c r="G64" s="15">
-        <v>0.88609199999999999</v>
+        <v>1.140134</v>
       </c>
       <c r="H64" s="15">
-        <v>0.73343999999999998</v>
+        <v>0.96533000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="C65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="14">
-        <v>3372346.7256720001</v>
+        <v>3359115.1556079998</v>
       </c>
       <c r="E65" s="15">
-        <v>1.9332999999999999E-2</v>
+        <v>1.9188E-2</v>
       </c>
       <c r="F65" s="15">
-        <v>0.78887300000000005</v>
+        <v>0.67500700000000002</v>
       </c>
       <c r="G65" s="15">
-        <v>0.88527400000000001</v>
+        <v>1.0854410000000001</v>
       </c>
       <c r="H65" s="15">
-        <v>0.55964100000000006</v>
+        <v>0.91336899999999999</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="14">
-        <v>3373842.6439439999</v>
+        <v>3359370.6214080001</v>
       </c>
       <c r="E66" s="15">
-        <v>1.9785000000000001E-2</v>
+        <v>1.9265999999999998E-2</v>
       </c>
       <c r="F66" s="15">
-        <v>0.70563500000000001</v>
+        <v>0.73332799999999998</v>
       </c>
       <c r="G66" s="15">
-        <v>1.00728</v>
+        <v>0.95161700000000005</v>
       </c>
       <c r="H66" s="15">
-        <v>0.83616199999999996</v>
+        <v>0.71402600000000005</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="14">
-        <v>3374703.7066310002</v>
+        <v>3359449.4967760001</v>
       </c>
       <c r="E67" s="15">
-        <v>2.0045E-2</v>
+        <v>1.9290000000000002E-2</v>
       </c>
       <c r="F67" s="15">
-        <v>0.76319700000000001</v>
+        <v>0.737425</v>
       </c>
       <c r="G67" s="15">
-        <v>0.90893900000000005</v>
+        <v>0.957681</v>
       </c>
       <c r="H67" s="15">
-        <v>0.63787799999999995</v>
+        <v>0.70694199999999996</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="14">
-        <v>3378684.0705960002</v>
+        <v>3360380.7431439999</v>
       </c>
       <c r="E68" s="15">
-        <v>2.1249000000000001E-2</v>
+        <v>1.9571999999999999E-2</v>
       </c>
       <c r="F68" s="15">
-        <v>0.74022200000000005</v>
+        <v>0.70584899999999995</v>
       </c>
       <c r="G68" s="15">
-        <v>0.94655900000000004</v>
+        <v>0.95281000000000005</v>
       </c>
       <c r="H68" s="15">
-        <v>0.74055099999999996</v>
+        <v>0.76983100000000004</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="14">
-        <v>3379050.044855</v>
+        <v>3361335.3866340001</v>
       </c>
       <c r="E69" s="15">
-        <v>2.1359E-2</v>
+        <v>1.9862000000000001E-2</v>
       </c>
       <c r="F69" s="15">
-        <v>0.67689200000000005</v>
+        <v>0.721719</v>
       </c>
       <c r="G69" s="15">
-        <v>1.113715</v>
+        <v>0.98568999999999996</v>
       </c>
       <c r="H69" s="15">
-        <v>0.97658800000000001</v>
+        <v>0.78259900000000004</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="14">
-        <v>3380070.5007549999</v>
+        <v>3362316.422148</v>
       </c>
       <c r="E70" s="15">
-        <v>2.1668E-2</v>
+        <v>2.0159E-2</v>
       </c>
       <c r="F70" s="15">
-        <v>0.72651500000000002</v>
+        <v>0.710063</v>
       </c>
       <c r="G70" s="15">
-        <v>1.003158</v>
+        <v>1.0255860000000001</v>
       </c>
       <c r="H70" s="15">
-        <v>0.77883999999999998</v>
+        <v>0.83618199999999998</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="C71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="14">
-        <v>3383843.9844539999</v>
+        <v>3363035.9009019998</v>
       </c>
       <c r="E71" s="15">
-        <v>2.2807999999999998E-2</v>
+        <v>2.0378E-2</v>
       </c>
       <c r="F71" s="15">
-        <v>0.71638199999999996</v>
+        <v>0.72594199999999998</v>
       </c>
       <c r="G71" s="15">
-        <v>1.0332509999999999</v>
+        <v>0.979298</v>
       </c>
       <c r="H71" s="15">
-        <v>0.83231999999999995</v>
+        <v>0.79098000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="14">
-        <v>3385262.0504939999</v>
+        <v>3365529.2481959998</v>
       </c>
       <c r="E72" s="15">
-        <v>2.3237000000000001E-2</v>
+        <v>2.1134E-2</v>
       </c>
       <c r="F72" s="15">
-        <v>0.66010400000000002</v>
+        <v>0.65363899999999997</v>
       </c>
       <c r="G72" s="15">
-        <v>1.121942</v>
+        <v>1.16947</v>
       </c>
       <c r="H72" s="15">
-        <v>0.96905699999999995</v>
+        <v>1.028742</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="14">
-        <v>3396545.0473679998</v>
+        <v>3368237.6292150002</v>
       </c>
       <c r="E73" s="15">
-        <v>2.6647000000000001E-2</v>
+        <v>2.1956E-2</v>
       </c>
       <c r="F73" s="15">
-        <v>0.63338300000000003</v>
+        <v>0.67978899999999998</v>
       </c>
       <c r="G73" s="15">
-        <v>1.1756709999999999</v>
+        <v>1.0903389999999999</v>
       </c>
       <c r="H73" s="15">
-        <v>1.0327029999999999</v>
+        <v>0.95226299999999997</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="14">
-        <v>3399390.9513249998</v>
+        <v>3368319.094391</v>
       </c>
       <c r="E74" s="15">
-        <v>2.7507E-2</v>
+        <v>2.1981000000000001E-2</v>
       </c>
       <c r="F74" s="15">
-        <v>0.71635400000000005</v>
+        <v>0.65136899999999998</v>
       </c>
       <c r="G74" s="15">
-        <v>0.99794300000000002</v>
+        <v>1.111453</v>
       </c>
       <c r="H74" s="15">
-        <v>0.81443200000000004</v>
+        <v>1.000481</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="14">
-        <v>3401449.96147</v>
+        <v>3368919.4338150001</v>
       </c>
       <c r="E75" s="15">
-        <v>2.8129999999999999E-2</v>
+        <v>2.2162999999999999E-2</v>
       </c>
       <c r="F75" s="15">
-        <v>0.68315599999999999</v>
+        <v>0.668211</v>
       </c>
       <c r="G75" s="15">
-        <v>1.082754</v>
+        <v>1.1132059999999999</v>
       </c>
       <c r="H75" s="15">
-        <v>0.91578599999999999</v>
+        <v>0.96951399999999999</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" s="14">
-        <v>3406558.2031350001</v>
+        <v>3369299.9444400002</v>
       </c>
       <c r="E76" s="15">
-        <v>2.9673999999999999E-2</v>
+        <v>2.2277999999999999E-2</v>
       </c>
       <c r="F76" s="15">
-        <v>0.66817099999999996</v>
+        <v>0.64488999999999996</v>
       </c>
       <c r="G76" s="15">
-        <v>1.129227</v>
+        <v>1.176647</v>
       </c>
       <c r="H76" s="15">
-        <v>0.95591800000000005</v>
+        <v>1.0400160000000001</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="14">
-        <v>3406714.0883070002</v>
+        <v>3374584.8055369998</v>
       </c>
       <c r="E77" s="15">
-        <v>2.9721000000000001E-2</v>
+        <v>2.3882E-2</v>
       </c>
       <c r="F77" s="15">
-        <v>0.67259599999999997</v>
+        <v>0.80190300000000003</v>
       </c>
       <c r="G77" s="15">
-        <v>1.1254569999999999</v>
+        <v>0.86420200000000003</v>
       </c>
       <c r="H77" s="15">
-        <v>0.93474999999999997</v>
+        <v>0.52976800000000002</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="14">
-        <v>3409408.872461</v>
+        <v>3375842.3849399998</v>
       </c>
       <c r="E78" s="15">
-        <v>3.0535E-2</v>
+        <v>2.4263E-2</v>
       </c>
       <c r="F78" s="15">
-        <v>0.66263499999999997</v>
+        <v>0.67837400000000003</v>
       </c>
       <c r="G78" s="15">
-        <v>1.124762</v>
+        <v>1.1208</v>
       </c>
       <c r="H78" s="15">
-        <v>0.96135999999999999</v>
+        <v>0.93036300000000005</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" s="14">
-        <v>3414683.392949</v>
+        <v>3378409.9359280001</v>
       </c>
       <c r="E79" s="15">
-        <v>3.2129999999999999E-2</v>
+        <v>2.5041999999999998E-2</v>
       </c>
       <c r="F79" s="15">
-        <v>0.70195799999999997</v>
+        <v>0.79735900000000004</v>
       </c>
       <c r="G79" s="15">
-        <v>1.03172</v>
+        <v>0.80421900000000002</v>
       </c>
       <c r="H79" s="15">
-        <v>0.84196300000000002</v>
+        <v>0.54751099999999997</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
       <c r="D80" s="14">
-        <v>3414786.8832120001</v>
+        <v>3379214.6401809999</v>
       </c>
       <c r="E80" s="15">
-        <v>3.2161000000000002E-2</v>
+        <v>2.5285999999999999E-2</v>
       </c>
       <c r="F80" s="15">
-        <v>0.67044800000000004</v>
+        <v>0.71952400000000005</v>
       </c>
       <c r="G80" s="15">
-        <v>1.0999350000000001</v>
+        <v>1.006292</v>
       </c>
       <c r="H80" s="15">
-        <v>0.91382399999999997</v>
+        <v>0.77024499999999996</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="14">
-        <v>3416604.9592789998</v>
+        <v>3380942.411448</v>
       </c>
       <c r="E81" s="15">
-        <v>3.2710999999999997E-2</v>
+        <v>2.5811000000000001E-2</v>
       </c>
       <c r="F81" s="15">
-        <v>0.67873600000000001</v>
+        <v>0.65586900000000004</v>
       </c>
       <c r="G81" s="15">
-        <v>1.073207</v>
+        <v>1.0134160000000001</v>
       </c>
       <c r="H81" s="15">
-        <v>0.90843200000000002</v>
+        <v>0.93148200000000003</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="14">
-        <v>3420291.1293799998</v>
+        <v>3381618.5315149999</v>
       </c>
       <c r="E82" s="15">
-        <v>3.3825000000000001E-2</v>
+        <v>2.6016000000000001E-2</v>
       </c>
       <c r="F82" s="15">
-        <v>0.647594</v>
+        <v>0.654532</v>
       </c>
       <c r="G82" s="15">
-        <v>1.1792480000000001</v>
+        <v>1.1466270000000001</v>
       </c>
       <c r="H82" s="15">
-        <v>1.0479050000000001</v>
+        <v>1.0475909999999999</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="C83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="14">
-        <v>3426231.4644269999</v>
+        <v>3381675.4206590001</v>
       </c>
       <c r="E83" s="15">
-        <v>3.5619999999999999E-2</v>
+        <v>2.6033000000000001E-2</v>
       </c>
       <c r="F83" s="15">
-        <v>0.75817199999999996</v>
+        <v>0.72772899999999996</v>
       </c>
       <c r="G83" s="15">
-        <v>0.93406699999999998</v>
+        <v>0.94182399999999999</v>
       </c>
       <c r="H83" s="15">
-        <v>0.66621300000000006</v>
+        <v>0.73027799999999998</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="C84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="14">
-        <v>3426821.2157410001</v>
+        <v>3383916.2275569998</v>
       </c>
       <c r="E84" s="15">
-        <v>3.5798999999999997E-2</v>
+        <v>2.6713000000000001E-2</v>
       </c>
       <c r="F84" s="15">
-        <v>0.70522799999999997</v>
+        <v>0.64227800000000002</v>
       </c>
       <c r="G84" s="15">
-        <v>1.0902860000000001</v>
+        <v>1.2111769999999999</v>
       </c>
       <c r="H84" s="15">
-        <v>0.84143299999999999</v>
+        <v>1.0675429999999999</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
       <c r="D85" s="14">
-        <v>3426886.2361889998</v>
+        <v>3386484.4498700001</v>
       </c>
       <c r="E85" s="15">
-        <v>3.5818000000000003E-2</v>
+        <v>2.7491999999999999E-2</v>
       </c>
       <c r="F85" s="15">
-        <v>0.60414500000000004</v>
+        <v>0.700766</v>
       </c>
       <c r="G85" s="15">
-        <v>1.260426</v>
+        <v>1.0560959999999999</v>
       </c>
       <c r="H85" s="15">
-        <v>1.2024109999999999</v>
+        <v>0.89050399999999996</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="C86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="14">
-        <v>3427699.0079709999</v>
+        <v>3387508.056659</v>
       </c>
       <c r="E86" s="15">
-        <v>3.6063999999999999E-2</v>
+        <v>2.7803000000000001E-2</v>
       </c>
       <c r="F86" s="15">
-        <v>0.76548400000000005</v>
+        <v>0.74857600000000002</v>
       </c>
       <c r="G86" s="15">
-        <v>0.92097899999999999</v>
+        <v>0.97199100000000005</v>
       </c>
       <c r="H86" s="15">
-        <v>0.65379299999999996</v>
+        <v>0.69411</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" s="14">
-        <v>3428441.7400759999</v>
+        <v>3388261.8295439999</v>
       </c>
       <c r="E87" s="15">
-        <v>3.6288000000000001E-2</v>
+        <v>2.8031E-2</v>
       </c>
       <c r="F87" s="15">
-        <v>0.753108</v>
+        <v>0.67490600000000001</v>
       </c>
       <c r="G87" s="15">
-        <v>0.94228100000000004</v>
+        <v>1.116414</v>
       </c>
       <c r="H87" s="15">
-        <v>0.68832000000000004</v>
+        <v>0.93961899999999998</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="C88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" s="14">
-        <v>3429187.1405529999</v>
+        <v>3390532.2064470001</v>
       </c>
       <c r="E88" s="15">
-        <v>3.6513999999999998E-2</v>
+        <v>2.8719999999999999E-2</v>
       </c>
       <c r="F88" s="15">
-        <v>0.68533299999999997</v>
+        <v>0.68350900000000003</v>
       </c>
       <c r="G88" s="15">
-        <v>1.0771900000000001</v>
+        <v>1.1024179999999999</v>
       </c>
       <c r="H88" s="15">
-        <v>0.87224299999999999</v>
+        <v>0.92186599999999996</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" s="14">
-        <v>3429460.9012139998</v>
+        <v>3392986.4458039999</v>
       </c>
       <c r="E89" s="15">
-        <v>3.6595999999999997E-2</v>
+        <v>2.9465000000000002E-2</v>
       </c>
       <c r="F89" s="15">
-        <v>0.65417199999999998</v>
+        <v>0.65762500000000002</v>
       </c>
       <c r="G89" s="15">
-        <v>1.181068</v>
+        <v>1.1547700000000001</v>
       </c>
       <c r="H89" s="15">
-        <v>1.034769</v>
+        <v>0.99758999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" s="14">
-        <v>3430308.5425749999</v>
+        <v>3393669.3468419998</v>
       </c>
       <c r="E90" s="15">
-        <v>3.6852999999999997E-2</v>
+        <v>2.9672E-2</v>
       </c>
       <c r="F90" s="15">
-        <v>0.74300100000000002</v>
+        <v>0.67347800000000002</v>
       </c>
       <c r="G90" s="15">
-        <v>0.97091000000000005</v>
+        <v>1.1164430000000001</v>
       </c>
       <c r="H90" s="15">
-        <v>0.72582999999999998</v>
+        <v>0.95756200000000002</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" s="14">
-        <v>3432395.2995079998</v>
+        <v>3397015.70383</v>
       </c>
       <c r="E91" s="15">
-        <v>3.7483000000000002E-2</v>
+        <v>3.0686999999999999E-2</v>
       </c>
       <c r="F91" s="15">
-        <v>0.71972899999999995</v>
+        <v>0.66091599999999995</v>
       </c>
       <c r="G91" s="15">
-        <v>1.062271</v>
+        <v>1.1312260000000001</v>
       </c>
       <c r="H91" s="15">
-        <v>0.83943299999999998</v>
+        <v>0.99432900000000002</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" s="14">
-        <v>3435908.9080679999</v>
+        <v>3397872.4531140001</v>
       </c>
       <c r="E92" s="15">
-        <v>3.8545000000000003E-2</v>
+        <v>3.0946999999999999E-2</v>
       </c>
       <c r="F92" s="15">
-        <v>0.70125400000000004</v>
+        <v>0.71390200000000004</v>
       </c>
       <c r="G92" s="15">
-        <v>1.069971</v>
+        <v>1.013614</v>
       </c>
       <c r="H92" s="15">
-        <v>0.84838199999999997</v>
+        <v>0.764652</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="C93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" s="14">
-        <v>3436785.8117430001</v>
+        <v>3399503.5283289999</v>
       </c>
       <c r="E93" s="15">
-        <v>3.8809999999999997E-2</v>
+        <v>3.1441999999999998E-2</v>
       </c>
       <c r="F93" s="15">
-        <v>0.70084900000000006</v>
+        <v>0.66629000000000005</v>
       </c>
       <c r="G93" s="15">
-        <v>1.080149</v>
+        <v>1.1517280000000001</v>
       </c>
       <c r="H93" s="15">
-        <v>0.84928099999999995</v>
+        <v>1.012033</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" s="14">
-        <v>3436956.9706720002</v>
+        <v>3401009.7132250001</v>
       </c>
       <c r="E94" s="15">
-        <v>3.8862000000000001E-2</v>
+        <v>3.1898999999999997E-2</v>
       </c>
       <c r="F94" s="15">
-        <v>0.77021799999999996</v>
+        <v>0.65188699999999999</v>
       </c>
       <c r="G94" s="15">
-        <v>0.92037999999999998</v>
+        <v>1.1457349999999999</v>
       </c>
       <c r="H94" s="15">
-        <v>0.61683699999999997</v>
+        <v>0.98192100000000004</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" s="14">
-        <v>3437134.4727210002</v>
+        <v>3402012.073413</v>
       </c>
       <c r="E95" s="15">
-        <v>3.8915999999999999E-2</v>
+        <v>3.2203000000000002E-2</v>
       </c>
       <c r="F95" s="15">
-        <v>0.70255500000000004</v>
+        <v>0.69987699999999997</v>
       </c>
       <c r="G95" s="15">
-        <v>1.0708960000000001</v>
+        <v>1.094095</v>
       </c>
       <c r="H95" s="15">
-        <v>0.82600099999999999</v>
+        <v>0.91696999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" s="14">
-        <v>3438042.4255900001</v>
+        <v>3403691.9301209999</v>
       </c>
       <c r="E96" s="15">
-        <v>3.9190000000000003E-2</v>
+        <v>3.2712999999999999E-2</v>
       </c>
       <c r="F96" s="15">
-        <v>0.71246900000000002</v>
+        <v>0.62643000000000004</v>
       </c>
       <c r="G96" s="15">
-        <v>1.0567299999999999</v>
+        <v>1.1804969999999999</v>
       </c>
       <c r="H96" s="15">
-        <v>0.80865299999999996</v>
+        <v>1.0861350000000001</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" s="14">
-        <v>3438482.5529780001</v>
+        <v>3406981.2113020001</v>
       </c>
       <c r="E97" s="15">
-        <v>3.9322999999999997E-2</v>
+        <v>3.3710999999999998E-2</v>
       </c>
       <c r="F97" s="15">
-        <v>0.725657</v>
+        <v>0.647235</v>
       </c>
       <c r="G97" s="15">
-        <v>1.0595300000000001</v>
+        <v>1.1313789999999999</v>
       </c>
       <c r="H97" s="15">
-        <v>0.83070200000000005</v>
+        <v>1.0012810000000001</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="C98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" s="14">
-        <v>3440325.5514270002</v>
+        <v>3410291.3156460002</v>
       </c>
       <c r="E98" s="15">
-        <v>3.9879999999999999E-2</v>
+        <v>3.4715000000000003E-2</v>
       </c>
       <c r="F98" s="15">
-        <v>0.61799599999999999</v>
+        <v>0.66752800000000001</v>
       </c>
       <c r="G98" s="15">
-        <v>1.2206779999999999</v>
+        <v>1.135286</v>
       </c>
       <c r="H98" s="15">
-        <v>1.1253960000000001</v>
+        <v>0.99896300000000005</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" s="14">
-        <v>3444358.840661</v>
+        <v>3417926.6091760001</v>
       </c>
       <c r="E99" s="15">
-        <v>4.1099999999999998E-2</v>
+        <v>3.7032000000000002E-2</v>
       </c>
       <c r="F99" s="15">
-        <v>0.68544300000000002</v>
+        <v>0.66331600000000002</v>
       </c>
       <c r="G99" s="15">
-        <v>1.0985860000000001</v>
+        <v>1.1448700000000001</v>
       </c>
       <c r="H99" s="15">
-        <v>0.88594799999999996</v>
+        <v>1.0163180000000001</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>23</v>
-      </c>
-      <c r="B100" t="s">
-        <v>109</v>
+        <v>64</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" s="14">
-        <v>3446762.3092490002</v>
+        <v>3453144.4830680001</v>
       </c>
       <c r="E100" s="15">
-        <v>4.1826000000000002E-2</v>
+        <v>4.7717000000000002E-2</v>
       </c>
       <c r="F100" s="15">
-        <v>0.72870599999999996</v>
+        <v>0.65195199999999998</v>
       </c>
       <c r="G100" s="15">
-        <v>0.97514299999999998</v>
+        <v>1.1353800000000001</v>
       </c>
       <c r="H100" s="15">
-        <v>0.76273999999999997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>72</v>
-      </c>
-      <c r="B101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C101" t="b">
-        <v>0</v>
-      </c>
-      <c r="D101" s="14">
-        <v>3447919.972323</v>
-      </c>
-      <c r="E101" s="15">
-        <v>4.2175999999999998E-2</v>
-      </c>
-      <c r="F101" s="15">
-        <v>0.69036699999999995</v>
-      </c>
-      <c r="G101" s="15">
-        <v>1.089323</v>
-      </c>
-      <c r="H101" s="15">
-        <v>0.904949</v>
+        <v>0.97768600000000006</v>
       </c>
     </row>
   </sheetData>
